--- a/3_Component_Results/DOMUSE/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -600,19 +600,13 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.581963747156308</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-1.54214369951163</v>
       </c>
       <c r="D2">
-        <v>1.340413674831011</v>
-      </c>
-      <c r="E2">
-        <v>0.1484740669092822</v>
-      </c>
-      <c r="F2">
-        <v>1.162359370385392</v>
+        <v>1.448674448721634</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -620,25 +614,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>-2.882557374342641</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.036238178657193</v>
       </c>
       <c r="D3">
-        <v>0.7499231003209509</v>
+        <v>1.984811366862886</v>
       </c>
       <c r="E3">
-        <v>0.2282953552642607</v>
-      </c>
-      <c r="F3">
-        <v>0.7226667287838978</v>
-      </c>
-      <c r="G3">
-        <v>0.1787864114589581</v>
-      </c>
-      <c r="H3">
-        <v>0.2316653115895837</v>
+        <v>1.857556161830772</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -646,19 +631,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.2863150783362418</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.782438074347376</v>
       </c>
       <c r="D4">
-        <v>0.5202934362683878</v>
-      </c>
-      <c r="E4">
-        <v>-0.1527057422074648</v>
-      </c>
-      <c r="F4">
-        <v>-0.09711555122759528</v>
+        <v>1.528775299013593</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -666,25 +645,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.262144638078988</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.105698033110672</v>
       </c>
       <c r="D5">
-        <v>-0.5201928171305161</v>
+        <v>1.451996792562324</v>
       </c>
       <c r="E5">
-        <v>-0.4967510287156316</v>
-      </c>
-      <c r="F5">
-        <v>-0.0554923892274735</v>
-      </c>
-      <c r="G5">
-        <v>0.1154797487540347</v>
-      </c>
-      <c r="H5">
-        <v>-0.6608604351558646</v>
+        <v>-1.799268852856208</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -692,19 +662,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.625890850241188</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.515744548381077</v>
       </c>
       <c r="D6">
-        <v>0.008255366591280372</v>
-      </c>
-      <c r="E6">
-        <v>0.06461623511779062</v>
-      </c>
-      <c r="F6">
-        <v>-0.5989301352357198</v>
+        <v>-1.737338552936064</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -712,25 +676,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1.507489181789797</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-1.644581632243364</v>
       </c>
       <c r="D7">
-        <v>-0.5061732145430202</v>
+        <v>0.336167001102121</v>
       </c>
       <c r="E7">
-        <v>-0.1675566918012793</v>
-      </c>
-      <c r="F7">
-        <v>0.172532842869652</v>
-      </c>
-      <c r="G7">
-        <v>-0.2534188453142447</v>
-      </c>
-      <c r="H7">
-        <v>0.174037055453982</v>
+        <v>-0.125962944546018</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,19 +693,13 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>-1.138408417700344</v>
+      </c>
+      <c r="C8">
+        <v>0.463634158232469</v>
+      </c>
+      <c r="D8">
         <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0.3</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,25 +707,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.163634158232469</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0.2</v>
-      </c>
-      <c r="F9">
-        <v>0.2</v>
-      </c>
-      <c r="G9">
-        <v>0.3</v>
-      </c>
-      <c r="H9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -784,19 +724,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D10">
-        <v>-0.09999999999999998</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,25 +738,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0.590764013820737</v>
       </c>
       <c r="E11">
-        <v>0.4999999999999999</v>
-      </c>
-      <c r="F11">
-        <v>-0.3</v>
-      </c>
-      <c r="G11">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="H11">
-        <v>0.5</v>
+        <v>0.1136525039426743</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,19 +755,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.390764013820737</v>
       </c>
       <c r="D12">
-        <v>-0.5</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0.6</v>
+        <v>0.2136525039426743</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,25 +769,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.890764013820737</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.2136525039426743</v>
       </c>
       <c r="D13">
-        <v>0.6</v>
+        <v>-1.352186157158073</v>
       </c>
       <c r="E13">
-        <v>-0.09999999999999998</v>
-      </c>
-      <c r="F13">
-        <v>0.2867024444253717</v>
-      </c>
-      <c r="G13">
-        <v>0.02951516308078778</v>
-      </c>
-      <c r="H13">
-        <v>0.1035479638391249</v>
+        <v>0.6726927221574073</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -876,19 +786,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>-0.3863474960573257</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>-1.252186157158073</v>
       </c>
       <c r="D14">
-        <v>0.3867024444253717</v>
-      </c>
-      <c r="E14">
-        <v>0.1295151630807878</v>
-      </c>
-      <c r="F14">
-        <v>0.3035479638391249</v>
+        <v>0.8726927221574072</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -896,25 +800,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-1.638888601583445</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.7300980613247755</v>
       </c>
       <c r="D15">
-        <v>0.1609533030064931</v>
+        <v>-0.4369056236708612</v>
       </c>
       <c r="E15">
-        <v>0.2040154147586258</v>
-      </c>
-      <c r="F15">
-        <v>0.2607538419697254</v>
-      </c>
-      <c r="G15">
-        <v>0.1555095279349912</v>
-      </c>
-      <c r="H15">
-        <v>-0.04389854933160886</v>
+        <v>0.823166457423955</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -922,19 +817,13 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.5691447583182824</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-0.6095362546328709</v>
       </c>
       <c r="D16">
-        <v>0.08812321100771564</v>
-      </c>
-      <c r="E16">
-        <v>0.04450520505406241</v>
-      </c>
-      <c r="F16">
-        <v>-0.1306356118724693</v>
+        <v>0.7364293948830947</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -942,25 +831,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.6976594656405866</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.5775524820198799</v>
       </c>
       <c r="D17">
-        <v>-0.289512524735684</v>
+        <v>-0.4714894041437753</v>
       </c>
       <c r="E17">
-        <v>-0.1966583311184346</v>
-      </c>
-      <c r="F17">
-        <v>0.1754661959127873</v>
-      </c>
-      <c r="G17">
-        <v>-0.03890445278589166</v>
-      </c>
-      <c r="H17">
-        <v>-0.1300302191554722</v>
+        <v>-0.05917995355126909</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -968,31 +848,19 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.8670650067555639</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.3860296437829855</v>
       </c>
       <c r="D18">
-        <v>0.2609259562735771</v>
+        <v>-0.01639910721239923</v>
       </c>
       <c r="E18">
-        <v>0.05091796230686413</v>
+        <v>-0.2045844989428098</v>
       </c>
       <c r="F18">
-        <v>-0.08724937281660239</v>
-      </c>
-      <c r="G18">
-        <v>-0.04192059028201173</v>
-      </c>
-      <c r="H18">
-        <v>-0.06512987938106118</v>
-      </c>
-      <c r="I18">
-        <v>-0.06707622100001798</v>
-      </c>
-      <c r="J18">
-        <v>-0.1388339730061905</v>
+        <v>-0.7065631210311423</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1000,25 +868,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>-0.6469556000565626</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>-0.05020022730686918</v>
       </c>
       <c r="D19">
-        <v>-0.1210504929110723</v>
+        <v>-0.1982205035962927</v>
       </c>
       <c r="E19">
-        <v>-0.02160684684072611</v>
-      </c>
-      <c r="F19">
-        <v>-0.05876588403454408</v>
-      </c>
-      <c r="G19">
-        <v>-0.07057340151597175</v>
-      </c>
-      <c r="H19">
-        <v>-0.1218633096921205</v>
+        <v>-0.6895924577170722</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1026,31 +885,25 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.07085026560420316</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>-0.2237210700904058</v>
       </c>
       <c r="D20">
-        <v>-0.08426645052865711</v>
+        <v>-0.6965766802542579</v>
       </c>
       <c r="E20">
-        <v>-0.08014011400303689</v>
+        <v>0.02041863870245458</v>
       </c>
       <c r="F20">
-        <v>-0.1288475322293061</v>
+        <v>0.02121790425625458</v>
       </c>
       <c r="G20">
-        <v>-0.2528536322013945</v>
+        <v>-0.04325580638174636</v>
       </c>
       <c r="H20">
-        <v>-0.2138130755373737</v>
-      </c>
-      <c r="I20">
-        <v>0.1074950199512923</v>
-      </c>
-      <c r="J20">
-        <v>0.4160685551819661</v>
+        <v>-0.2839314448180338</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1058,25 +911,22 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>-0.1394546195617486</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>-0.6301937814598095</v>
       </c>
       <c r="D21">
-        <v>-0.06246463343485775</v>
+        <v>0.06366118589851621</v>
       </c>
       <c r="E21">
-        <v>-0.2096110850053328</v>
+        <v>0.07226491068961671</v>
       </c>
       <c r="F21">
-        <v>-0.1627660691040115</v>
+        <v>0.008274867338030012</v>
       </c>
       <c r="G21">
-        <v>0.1590256936710687</v>
-      </c>
-      <c r="H21">
-        <v>0.4658200159580188</v>
+        <v>-0.2341799840419811</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1084,31 +934,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.5677291480249518</v>
       </c>
       <c r="C22">
-        <v>-0.1366574034096065</v>
+        <v>0.1366148674942425</v>
       </c>
       <c r="D22">
-        <v>-0.09496846096875466</v>
+        <v>0.1400625188248736</v>
       </c>
       <c r="E22">
-        <v>0.3159551781159231</v>
+        <v>0.1652043517828843</v>
       </c>
       <c r="F22">
-        <v>0.5543032000679144</v>
+        <v>-0.1456967999320855</v>
       </c>
       <c r="G22">
-        <v>0.2031693745684755</v>
+        <v>-0.265250679163225</v>
       </c>
       <c r="H22">
-        <v>0.1966455940071838</v>
+        <v>0.2966455940071838</v>
       </c>
       <c r="I22">
-        <v>0.6681918305458753</v>
+        <v>0.5932304299558757</v>
       </c>
       <c r="J22">
-        <v>0.5274696044805056</v>
+        <v>0.1638906699427426</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1116,28 +966,28 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.273272270903849</v>
       </c>
       <c r="C23">
-        <v>-0.08956386624824764</v>
+        <v>0.1454671135453806</v>
       </c>
       <c r="D23">
-        <v>0.2567840944715951</v>
+        <v>0.1060332681385563</v>
       </c>
       <c r="E23">
-        <v>0.503120740971927</v>
+        <v>-0.1968792590280729</v>
       </c>
       <c r="F23">
-        <v>0.3102073940677894</v>
+        <v>-0.1582126596639112</v>
       </c>
       <c r="G23">
-        <v>0.196182432882435</v>
+        <v>0.296182432882435</v>
       </c>
       <c r="H23">
-        <v>0.668018695024398</v>
+        <v>0.5930572944343984</v>
       </c>
       <c r="I23">
-        <v>0.5265679612253841</v>
+        <v>0.1629890266876211</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1145,25 +995,25 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.2350309797936282</v>
       </c>
       <c r="C24">
-        <v>0.06328588358403514</v>
+        <v>-0.08746494274900357</v>
       </c>
       <c r="D24">
-        <v>0.3959737390416975</v>
+        <v>-0.3040262609583024</v>
       </c>
       <c r="E24">
-        <v>0.2710900832461814</v>
+        <v>-0.1973299704855191</v>
       </c>
       <c r="F24">
-        <v>0.2129191973456891</v>
+        <v>0.3129191973456891</v>
       </c>
       <c r="G24">
-        <v>0.6322600995643144</v>
+        <v>0.5572986989743148</v>
       </c>
       <c r="H24">
-        <v>0.49148055827295</v>
+        <v>0.1279016237351869</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1171,34 +1021,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>-0.1507508263330387</v>
       </c>
       <c r="C25">
-        <v>0.3782135419396975</v>
+        <v>-0.3217864580603025</v>
       </c>
       <c r="D25">
-        <v>0.2723687645660529</v>
+        <v>-0.1960512891656476</v>
       </c>
       <c r="E25">
-        <v>0.2148114689455075</v>
+        <v>0.3148114689455074</v>
       </c>
       <c r="F25">
-        <v>0.6447055721397736</v>
+        <v>0.5697441715497741</v>
       </c>
       <c r="G25">
-        <v>0.3942180038373727</v>
+        <v>0.03063906929960958</v>
       </c>
       <c r="H25">
-        <v>-0.3547486635648346</v>
+        <v>0.7663740058302263</v>
       </c>
       <c r="I25">
-        <v>7.224995026786122</v>
+        <v>1.824995026786122</v>
       </c>
       <c r="J25">
-        <v>-4.40538983266147</v>
+        <v>7.555055938636855</v>
       </c>
       <c r="K25">
-        <v>1.220912581163491</v>
+        <v>-4.334933866960823</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1206,31 +1056,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="C26">
-        <v>0.003514752003338506</v>
+        <v>-0.464905301728362</v>
       </c>
       <c r="D26">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E26">
-        <v>0.5761138288871404</v>
+        <v>0.5011524282971408</v>
       </c>
       <c r="F26">
-        <v>0.3236362682730444</v>
+        <v>-0.03994266626471871</v>
       </c>
       <c r="G26">
-        <v>-0.3810025317521822</v>
+        <v>0.7401201376428788</v>
       </c>
       <c r="H26">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
       <c r="I26">
-        <v>-4.429401638091318</v>
+        <v>7.531044133207007</v>
       </c>
       <c r="J26">
-        <v>1.190512736396389</v>
+        <v>-4.365333711727925</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1238,28 +1088,28 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>-0.4684200537317005</v>
       </c>
       <c r="C27">
-        <v>-0.09935903776638799</v>
+        <v>0.0006409622336119858</v>
       </c>
       <c r="D27">
-        <v>0.5351242398023535</v>
+        <v>0.4601628392123538</v>
       </c>
       <c r="E27">
-        <v>0.4003907883421356</v>
+        <v>0.03681185380437252</v>
       </c>
       <c r="F27">
-        <v>-0.2981164175385957</v>
+        <v>0.8230062518564651</v>
       </c>
       <c r="G27">
-        <v>7.280758878938035</v>
+        <v>1.880758878938034</v>
       </c>
       <c r="H27">
-        <v>-4.349723732870737</v>
+        <v>7.610722038427587</v>
       </c>
       <c r="I27">
-        <v>1.276519752254085</v>
+        <v>-4.279326695870229</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1267,25 +1117,25 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="C28">
-        <v>0.3761138288871404</v>
+        <v>0.3011524282971408</v>
       </c>
       <c r="D28">
-        <v>0.4236362682730444</v>
+        <v>0.06005733373528133</v>
       </c>
       <c r="E28">
-        <v>-0.2810025317521821</v>
+        <v>0.8401201376428787</v>
       </c>
       <c r="F28">
-        <v>7.300000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="G28">
-        <v>-4.329401638091317</v>
+        <v>7.631044133207007</v>
       </c>
       <c r="H28">
-        <v>1.290512736396388</v>
+        <v>-4.265333711727925</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1293,34 +1143,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>-0.07496140058999959</v>
       </c>
       <c r="C29">
-        <v>0.082896294329659</v>
+        <v>-0.2806826402081041</v>
       </c>
       <c r="D29">
-        <v>-0.4002510135694373</v>
+        <v>0.7208716558256236</v>
       </c>
       <c r="E29">
-        <v>7.280694102772056</v>
+        <v>1.880694102772056</v>
       </c>
       <c r="F29">
-        <v>-4.348545075821247</v>
+        <v>7.611900695477078</v>
       </c>
       <c r="G29">
-        <v>1.279364066968304</v>
+        <v>-4.276482381156009</v>
       </c>
       <c r="H29">
-        <v>2.431239913711036</v>
+        <v>0.6557717715642448</v>
       </c>
       <c r="I29">
-        <v>-1.709031174555179</v>
+        <v>1.653561914759492</v>
       </c>
       <c r="J29">
-        <v>-0.7145886096972744</v>
+        <v>-1.96617036333055</v>
       </c>
       <c r="K29">
-        <v>0.8634600626594378</v>
+        <v>-1.639379512226871</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1328,31 +1178,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>-0.3635789345377631</v>
       </c>
       <c r="C30">
-        <v>-0.362036225037148</v>
+        <v>0.7590864443579128</v>
       </c>
       <c r="D30">
-        <v>7.215917503196673</v>
+        <v>1.815917503196673</v>
       </c>
       <c r="E30">
-        <v>-4.369398197908522</v>
+        <v>7.591047573389803</v>
       </c>
       <c r="F30">
-        <v>1.267913688632112</v>
+        <v>-4.287932759492201</v>
       </c>
       <c r="G30">
-        <v>2.534972111579622</v>
+        <v>0.7595039694328304</v>
       </c>
       <c r="H30">
-        <v>-1.655630336570284</v>
+        <v>1.706962752744387</v>
       </c>
       <c r="I30">
-        <v>-0.6817059300238271</v>
+        <v>-1.933287683657102</v>
       </c>
       <c r="J30">
-        <v>0.851995434104631</v>
+        <v>-1.650844140781678</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1360,28 +1210,28 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1.121122669395061</v>
       </c>
       <c r="C31">
-        <v>2.733642714808233</v>
+        <v>-2.666357285191768</v>
       </c>
       <c r="D31">
-        <v>-2.577064645026188</v>
+        <v>9.383381126272138</v>
       </c>
       <c r="E31">
-        <v>2.371668130626764</v>
+        <v>-3.184178317497549</v>
       </c>
       <c r="F31">
-        <v>3.690251624788115</v>
+        <v>1.914783482641323</v>
       </c>
       <c r="G31">
-        <v>-1.016485466444475</v>
+        <v>2.346107622870196</v>
       </c>
       <c r="H31">
-        <v>-0.6784953839033339</v>
+        <v>-1.930077137536609</v>
       </c>
       <c r="I31">
-        <v>0.8550659971567438</v>
+        <v>-1.647773577729565</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1389,25 +1239,25 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>-5.4</v>
       </c>
       <c r="C32">
-        <v>-0.2294016380913177</v>
+        <v>11.73104413320701</v>
       </c>
       <c r="D32">
-        <v>2.290512736396388</v>
+        <v>-3.265333711727925</v>
       </c>
       <c r="E32">
-        <v>3.24269378128221</v>
+        <v>1.467225639135418</v>
       </c>
       <c r="F32">
-        <v>-0.993024636165651</v>
+        <v>2.36956845314902</v>
       </c>
       <c r="G32">
-        <v>-0.598535546956398</v>
+        <v>-1.850117300589673</v>
       </c>
       <c r="H32">
-        <v>0.871717547257242</v>
+        <v>-1.631122027629067</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1415,34 +1265,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>11.96044577129832</v>
       </c>
       <c r="C33">
-        <v>2.777425599017775</v>
+        <v>-2.778420849106539</v>
       </c>
       <c r="D33">
-        <v>2.832459043953733</v>
+        <v>1.056990901806941</v>
       </c>
       <c r="E33">
-        <v>-1.362464479694594</v>
+        <v>2.000128609620077</v>
       </c>
       <c r="F33">
-        <v>-0.6767539172131047</v>
+        <v>-1.92833567084638</v>
       </c>
       <c r="G33">
-        <v>0.922715035801616</v>
+        <v>-1.580124539084693</v>
       </c>
       <c r="H33">
-        <v>-0.4897916062055997</v>
+        <v>1.000096564291027</v>
       </c>
       <c r="I33">
-        <v>-0.1816683545813902</v>
+        <v>-1.317597449301843</v>
       </c>
       <c r="J33">
-        <v>0.3622194965144701</v>
+        <v>-0.2941501239389197</v>
       </c>
       <c r="K33">
-        <v>1.43887929155413</v>
+        <v>-0.07494009289327153</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1450,31 +1300,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>-5.555846448124313</v>
       </c>
       <c r="C34">
-        <v>2.933109045252834</v>
+        <v>1.157640903106042</v>
       </c>
       <c r="D34">
-        <v>0.4029636131305101</v>
+        <v>3.765556702445181</v>
       </c>
       <c r="E34">
-        <v>-0.2271234641608255</v>
+        <v>-1.478705217794101</v>
       </c>
       <c r="F34">
-        <v>1.17604211549083</v>
+        <v>-1.326797459395479</v>
       </c>
       <c r="G34">
-        <v>-0.4560540007116742</v>
+        <v>1.033834169784953</v>
       </c>
       <c r="H34">
-        <v>-0.161098360232728</v>
+        <v>-1.297027454953181</v>
       </c>
       <c r="I34">
-        <v>0.3804000509789915</v>
+        <v>-0.2759695694743982</v>
       </c>
       <c r="J34">
-        <v>1.448220391330807</v>
+        <v>-0.06559899311659473</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1482,28 +1332,28 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-1.775468142146792</v>
       </c>
       <c r="C35">
-        <v>0.2439593189263149</v>
+        <v>3.606552408240986</v>
       </c>
       <c r="D35">
-        <v>1.644329052921961</v>
+        <v>0.3927472992886858</v>
       </c>
       <c r="E35">
-        <v>1.687368330530063</v>
+        <v>-0.815471244356246</v>
       </c>
       <c r="F35">
-        <v>-0.4391241059128532</v>
+        <v>1.050764064583774</v>
       </c>
       <c r="G35">
-        <v>-0.1403599556491315</v>
+        <v>-1.276289050369584</v>
       </c>
       <c r="H35">
-        <v>0.4193699052509743</v>
+        <v>-0.2369997152024154</v>
       </c>
       <c r="I35">
-        <v>1.452780198139322</v>
+        <v>-0.06103918630807925</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1511,25 +1361,25 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>3.362593089314671</v>
       </c>
       <c r="C36">
-        <v>3.293142344969113</v>
+        <v>2.041560591335838</v>
       </c>
       <c r="D36">
-        <v>2.053995939905107</v>
+        <v>-0.4488436349812019</v>
       </c>
       <c r="E36">
-        <v>-0.4677356827948814</v>
+        <v>1.022152487701746</v>
       </c>
       <c r="F36">
-        <v>-0.1314804369000768</v>
+        <v>-1.267409531620529</v>
       </c>
       <c r="G36">
-        <v>0.4224011639741718</v>
+        <v>-0.2339684564792179</v>
       </c>
       <c r="H36">
-        <v>1.459946072023484</v>
+        <v>-0.05387331242391724</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1537,34 +1387,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-1.251581753633275</v>
       </c>
       <c r="C37">
-        <v>2.097999460621082</v>
+        <v>-0.4048401142652269</v>
       </c>
       <c r="D37">
-        <v>0.5520236414734543</v>
+        <v>2.041911811970081</v>
       </c>
       <c r="E37">
-        <v>0.4153631417470225</v>
+        <v>-0.7205659529734301</v>
       </c>
       <c r="F37">
-        <v>0.7000918509487235</v>
+        <v>0.04372223049533375</v>
       </c>
       <c r="G37">
-        <v>1.506182547415008</v>
+        <v>-0.007636837032393318</v>
       </c>
       <c r="H37">
-        <v>0.829251231258695</v>
+        <v>0.8479688157375591</v>
       </c>
       <c r="I37">
-        <v>0.007026164613634506</v>
+        <v>1.25223989959133</v>
       </c>
       <c r="J37">
-        <v>0.2451984062062991</v>
+        <v>-0.374502102413146</v>
       </c>
       <c r="K37">
-        <v>0.2839967635768232</v>
+        <v>0.5726471533985631</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1572,31 +1422,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>-2.502839574886309</v>
       </c>
       <c r="C38">
-        <v>-1.16265587174945</v>
+        <v>0.3272322987471768</v>
       </c>
       <c r="D38">
-        <v>1.582913912443586</v>
+        <v>0.4469848177231339</v>
       </c>
       <c r="E38">
-        <v>1.527004695980664</v>
+        <v>0.8706350755272747</v>
       </c>
       <c r="F38">
-        <v>1.631727266804446</v>
+        <v>0.117907882357045</v>
       </c>
       <c r="G38">
-        <v>0.9836606267322026</v>
+        <v>1.002378211211067</v>
       </c>
       <c r="H38">
-        <v>0.0830083238018631</v>
+        <v>1.328222058779559</v>
       </c>
       <c r="I38">
-        <v>0.3004288142107612</v>
+        <v>-0.3192716944086839</v>
       </c>
       <c r="J38">
-        <v>0.3392560329237568</v>
+        <v>0.6279064227454967</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1604,28 +1454,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1.489888170496627</v>
       </c>
       <c r="C39">
-        <v>0.229249077949035</v>
+        <v>-0.9066800167714175</v>
       </c>
       <c r="D39">
-        <v>0.8123243230358668</v>
+        <v>0.155954702582477</v>
       </c>
       <c r="E39">
-        <v>1.960742058374819</v>
+        <v>0.4469226739274177</v>
       </c>
       <c r="F39">
-        <v>1.386457942637421</v>
+        <v>1.405175527116285</v>
       </c>
       <c r="G39">
-        <v>0.5165590133838123</v>
+        <v>1.761772748361508</v>
       </c>
       <c r="H39">
-        <v>0.533292211046529</v>
+        <v>-0.08640829757291613</v>
       </c>
       <c r="I39">
-        <v>0.4291993317639253</v>
+        <v>0.7178497215856652</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1633,25 +1483,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>-1.135929094720453</v>
       </c>
       <c r="C40">
-        <v>0.8465632433592418</v>
+        <v>0.1901936229058521</v>
       </c>
       <c r="D40">
-        <v>1.920531081894779</v>
+        <v>0.4067116974473777</v>
       </c>
       <c r="E40">
-        <v>1.289107015581394</v>
+        <v>1.307824600060258</v>
       </c>
       <c r="F40">
-        <v>0.5183108491097954</v>
+        <v>1.763524584087491</v>
       </c>
       <c r="G40">
-        <v>0.6760134805742268</v>
+        <v>0.05631297195478169</v>
       </c>
       <c r="H40">
-        <v>0.510877643699331</v>
+        <v>0.7995280335210708</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1659,34 +1509,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-0.6563696204533898</v>
       </c>
       <c r="C41">
-        <v>0.5708169905943377</v>
+        <v>-0.9430023938530638</v>
       </c>
       <c r="D41">
-        <v>0.01804978668664603</v>
+        <v>0.0367673711655101</v>
       </c>
       <c r="E41">
-        <v>-0.1827256417445682</v>
+        <v>1.062488093233128</v>
       </c>
       <c r="F41">
-        <v>0.4235166964376589</v>
+        <v>-0.1961838121817862</v>
       </c>
       <c r="G41">
-        <v>0.6676403276704121</v>
+        <v>0.956290717492152</v>
       </c>
       <c r="H41">
-        <v>0.621340604993847</v>
+        <v>0.9390091117333981</v>
       </c>
       <c r="I41">
-        <v>0.79956309247072</v>
+        <v>0.6684365430787267</v>
       </c>
       <c r="J41">
-        <v>0.6670299006771074</v>
+        <v>0.6184138919984576</v>
       </c>
       <c r="K41">
-        <v>0.4311770617334787</v>
+        <v>-0.420559058842485</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1694,31 +1544,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>-1.513819384447401</v>
       </c>
       <c r="C42">
-        <v>0.02980728807256128</v>
+        <v>0.04852487255142535</v>
       </c>
       <c r="D42">
-        <v>-0.2238244379332457</v>
+        <v>1.02138929704445</v>
       </c>
       <c r="E42">
-        <v>0.5832762842658497</v>
+        <v>-0.03642422435359549</v>
       </c>
       <c r="F42">
-        <v>0.617399973412617</v>
+        <v>0.9060503632343568</v>
       </c>
       <c r="G42">
-        <v>0.5217797901587033</v>
+        <v>0.8394482968982544</v>
       </c>
       <c r="H42">
-        <v>0.585513233710472</v>
+        <v>0.4543866843184787</v>
       </c>
       <c r="I42">
-        <v>0.4270107835748291</v>
+        <v>0.3783947748961793</v>
       </c>
       <c r="J42">
-        <v>0.1561013815599921</v>
+        <v>-0.6956347390159716</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1726,28 +1576,28 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.01871758447886407</v>
       </c>
       <c r="C43">
-        <v>-0.1301963372738157</v>
+        <v>1.11501739770388</v>
       </c>
       <c r="D43">
-        <v>0.5108066060813883</v>
+        <v>-0.1088939025380568</v>
       </c>
       <c r="E43">
-        <v>0.6655684479417943</v>
+        <v>0.9542188377635341</v>
       </c>
       <c r="F43">
-        <v>0.5686458496688687</v>
+        <v>0.8863143564084197</v>
       </c>
       <c r="G43">
-        <v>0.658905425534158</v>
+        <v>0.5277788761421647</v>
       </c>
       <c r="H43">
-        <v>0.4547983591411224</v>
+        <v>0.4061823504624726</v>
       </c>
       <c r="I43">
-        <v>0.1254483673634326</v>
+        <v>-0.7262877532125311</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1755,25 +1605,25 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1.245213734977696</v>
       </c>
       <c r="C44">
-        <v>0.1761401487524949</v>
+        <v>-0.4435603598669502</v>
       </c>
       <c r="D44">
-        <v>0.5023931703099294</v>
+        <v>0.7910435601316692</v>
       </c>
       <c r="E44">
-        <v>0.4379362489728322</v>
+        <v>0.7556047557123833</v>
       </c>
       <c r="F44">
-        <v>0.5750967346946538</v>
+        <v>0.4439701853026605</v>
       </c>
       <c r="G44">
-        <v>0.4004511949343623</v>
+        <v>0.3518351862557125</v>
       </c>
       <c r="H44">
-        <v>0.1246246286569459</v>
+        <v>-0.7271114919190178</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1781,31 +1631,31 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.6197005086194451</v>
       </c>
       <c r="C45">
-        <v>0.4294639635780726</v>
+        <v>0.7181143533998124</v>
       </c>
       <c r="D45">
-        <v>0.3973415673004581</v>
+        <v>0.7150100740400092</v>
       </c>
       <c r="E45">
-        <v>0.6116741145579709</v>
+        <v>0.4805475651659776</v>
       </c>
       <c r="F45">
-        <v>0.5177953690990194</v>
+        <v>0.4691793604203695</v>
       </c>
       <c r="G45">
-        <v>0.1766395540300891</v>
+        <v>-0.6750965665458746</v>
       </c>
       <c r="H45">
-        <v>-0.103717404667151</v>
+        <v>-0.6161240214144073</v>
       </c>
       <c r="I45">
-        <v>0.116853017112689</v>
+        <v>0.8511916275658962</v>
       </c>
       <c r="J45">
-        <v>0.0656055045824076</v>
+        <v>-0.1459109768251778</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1813,28 +1663,28 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.2886503898217399</v>
       </c>
       <c r="C46">
-        <v>0.1561587410681113</v>
+        <v>0.4738272478076624</v>
       </c>
       <c r="D46">
-        <v>0.4583248076330051</v>
+        <v>0.3271982582410118</v>
       </c>
       <c r="E46">
-        <v>0.512331327115831</v>
+        <v>0.4637153184371812</v>
       </c>
       <c r="F46">
-        <v>0.3008324781649634</v>
+        <v>-0.5509036424110003</v>
       </c>
       <c r="G46">
-        <v>-0.03005129570333048</v>
+        <v>-0.5424579124505868</v>
       </c>
       <c r="H46">
-        <v>0.1621020318703046</v>
+        <v>0.8964406423235118</v>
       </c>
       <c r="I46">
-        <v>0.09396722017207537</v>
+        <v>-0.11754926123551</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1842,25 +1692,25 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>0.3176685067395511</v>
       </c>
       <c r="C47">
-        <v>0.3448617207782973</v>
+        <v>0.213735171386304</v>
       </c>
       <c r="D47">
-        <v>0.5524129607847215</v>
+        <v>0.5037969521060717</v>
       </c>
       <c r="E47">
-        <v>0.3965125265442708</v>
+        <v>-0.4552235940316929</v>
       </c>
       <c r="F47">
-        <v>0.02086797035774168</v>
+        <v>-0.4915386463895146</v>
       </c>
       <c r="G47">
-        <v>0.2165940584969377</v>
+        <v>0.9509326689501449</v>
       </c>
       <c r="H47">
-        <v>0.1678413615257028</v>
+        <v>-0.04367511988188261</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1868,22 +1718,22 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>-0.1311265493919933</v>
       </c>
       <c r="C48">
-        <v>0.3503545147481475</v>
+        <v>0.3017385060694977</v>
       </c>
       <c r="D48">
-        <v>0.2503663119242107</v>
+        <v>-0.6013698086517532</v>
       </c>
       <c r="E48">
-        <v>-0.010844490317723</v>
+        <v>-0.5232511070649792</v>
       </c>
       <c r="F48">
-        <v>0.3388531918591725</v>
+        <v>1.07319180231238</v>
       </c>
       <c r="G48">
-        <v>0.2536586044058566</v>
+        <v>0.04214212299827119</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1891,19 +1741,19 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.04861600867864979</v>
       </c>
       <c r="C49">
-        <v>0.06337333140709242</v>
+        <v>-0.7883627891688714</v>
       </c>
       <c r="D49">
-        <v>-0.126997991958504</v>
+        <v>-0.6394046087057603</v>
       </c>
       <c r="E49">
-        <v>0.2710278583641497</v>
+        <v>1.005366468817357</v>
       </c>
       <c r="F49">
-        <v>0.2839636379017065</v>
+        <v>0.07244715649412109</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1911,16 +1761,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>-0.8517361205759637</v>
       </c>
       <c r="C50">
-        <v>-0.2666626902110494</v>
+        <v>-0.7790693069583057</v>
       </c>
       <c r="D50">
-        <v>-0.0175111938228269</v>
+        <v>0.7168274166303803</v>
       </c>
       <c r="E50">
-        <v>-0.03551192986874702</v>
+        <v>-0.2470284112763324</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1928,13 +1778,13 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>-0.5124066167472563</v>
       </c>
       <c r="C51">
-        <v>-0.003358524568980586</v>
+        <v>0.7309800858842266</v>
       </c>
       <c r="D51">
-        <v>0.0251811917398754</v>
+        <v>-0.18633528966771</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1942,10 +1792,10 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.7343386104532073</v>
       </c>
       <c r="C52">
-        <v>0.0006230659377876868</v>
+        <v>-0.2108934154697977</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1953,7 +1803,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>-0.2115164814075854</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/DOMUSE/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -600,13 +600,19 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1.581963747156308</v>
+        <v>0.9429846877691255</v>
       </c>
       <c r="C2">
-        <v>-1.54214369951163</v>
+        <v>-1.683345218495509</v>
       </c>
       <c r="D2">
-        <v>1.448674448721634</v>
+        <v>1.331130211625873</v>
+      </c>
+      <c r="E2">
+        <v>-0.8910949049417215</v>
+      </c>
+      <c r="F2">
+        <v>0.5444043050338662</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -614,16 +620,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-2.882557374342641</v>
+        <v>-0.009283463205137954</v>
       </c>
       <c r="C3">
-        <v>1.036238178657193</v>
+        <v>-1.039568971851004</v>
       </c>
       <c r="D3">
-        <v>1.984811366862886</v>
+        <v>0.1319680349694249</v>
       </c>
       <c r="E3">
-        <v>1.857556161830772</v>
+        <v>1.917397577543248</v>
+      </c>
+      <c r="F3">
+        <v>1.667851385915513</v>
+      </c>
+      <c r="G3">
+        <v>-0.9027390951221286</v>
+      </c>
+      <c r="H3">
+        <v>1.909823034362461</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -631,13 +646,19 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.2863150783362418</v>
+        <v>-0.617955065351526</v>
       </c>
       <c r="C4">
-        <v>1.782438074347376</v>
+        <v>1.689102222278987</v>
       </c>
       <c r="D4">
-        <v>1.528775299013593</v>
+        <v>1.465478093400003</v>
+      </c>
+      <c r="E4">
+        <v>-1.234231248788552</v>
+      </c>
+      <c r="F4">
+        <v>1.581042171545282</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -645,16 +666,25 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1.262144638078988</v>
+        <v>0.9451846571316151</v>
       </c>
       <c r="C5">
-        <v>1.105698033110672</v>
+        <v>-1.081525506581087</v>
       </c>
       <c r="D5">
-        <v>1.451996792562324</v>
+        <v>1.157964905642361</v>
       </c>
       <c r="E5">
-        <v>-1.799268852856208</v>
+        <v>-1.637703562051122</v>
+      </c>
+      <c r="F5">
+        <v>-1.956559498859209</v>
+      </c>
+      <c r="G5">
+        <v>-0.2717920704075948</v>
+      </c>
+      <c r="H5">
+        <v>0.3027737230766045</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -662,13 +692,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1.625890850241188</v>
+        <v>1.678157722772877</v>
       </c>
       <c r="C6">
-        <v>1.515744548381077</v>
+        <v>-1.140952533335491</v>
       </c>
       <c r="D6">
-        <v>-1.737338552936064</v>
+        <v>-1.892811743040456</v>
+      </c>
+      <c r="E6">
+        <v>-0.3226555840438389</v>
+      </c>
+      <c r="F6">
+        <v>0.3647040229967492</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -676,16 +712,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1.507489181789797</v>
+        <v>-1.901067109631736</v>
       </c>
       <c r="C7">
-        <v>-1.644581632243364</v>
+        <v>-0.3872718191616296</v>
       </c>
       <c r="D7">
-        <v>0.336167001102121</v>
+        <v>0.4574609436894488</v>
       </c>
       <c r="E7">
-        <v>-0.125962944546018</v>
+        <v>-0.9473870852279123</v>
+      </c>
+      <c r="F7">
+        <v>-0.027467157130348</v>
+      </c>
+      <c r="G7">
+        <v>-0.1534188453142447</v>
+      </c>
+      <c r="H7">
+        <v>0.04366937378819929</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -693,13 +738,19 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1.138408417700344</v>
+        <v>0.963634158232469</v>
       </c>
       <c r="C8">
-        <v>0.463634158232469</v>
+        <v>-0.7798303934266329</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="E8">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="F8">
+        <v>0.1696323183342173</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -707,16 +758,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.163634158232469</v>
+        <v>-0.2</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.3696323183342173</v>
       </c>
       <c r="E9">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F9">
+        <v>1.104562648764482</v>
+      </c>
+      <c r="G9">
         <v>0.6</v>
+      </c>
+      <c r="H9">
+        <v>0.6184720660046906</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -724,13 +784,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.3</v>
+        <v>-0.1303676816657827</v>
       </c>
       <c r="C10">
         <v>0.7</v>
       </c>
       <c r="D10">
+        <v>0.8045626487644824</v>
+      </c>
+      <c r="E10">
         <v>0.3</v>
+      </c>
+      <c r="F10">
+        <v>0.3184720660046906</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -738,16 +804,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.9045626487644824</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
-        <v>0.590764013820737</v>
+        <v>0.4184720660046907</v>
       </c>
       <c r="E11">
-        <v>0.1136525039426743</v>
+        <v>0.6907640138207369</v>
+      </c>
+      <c r="F11">
+        <v>0.2136525039426743</v>
+      </c>
+      <c r="G11">
+        <v>-0.1964197943645729</v>
+      </c>
+      <c r="H11">
+        <v>0.8183250015702015</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -755,13 +830,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.1</v>
+        <v>0.1184720660046907</v>
       </c>
       <c r="C12">
-        <v>0.390764013820737</v>
+        <v>0.190764013820737</v>
       </c>
       <c r="D12">
-        <v>0.2136525039426743</v>
+        <v>0.01365250394267431</v>
+      </c>
+      <c r="E12">
+        <v>-0.2964197943645729</v>
+      </c>
+      <c r="F12">
+        <v>0.9183250015702015</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -769,16 +850,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.890764013820737</v>
+        <v>0.5136525039426743</v>
       </c>
       <c r="C13">
-        <v>0.2136525039426743</v>
+        <v>-0.2964197943645729</v>
       </c>
       <c r="D13">
-        <v>-1.352186157158073</v>
+        <v>0.9183250015702015</v>
       </c>
       <c r="E13">
+        <v>-1.452186157158073</v>
+      </c>
+      <c r="F13">
         <v>0.6726927221574073</v>
+      </c>
+      <c r="G13">
+        <v>0.6729977607768376</v>
+      </c>
+      <c r="H13">
+        <v>-0.5508075746843419</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -786,13 +876,19 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.3863474960573257</v>
+        <v>0.3183250015702015</v>
       </c>
       <c r="C14">
-        <v>-1.252186157158073</v>
+        <v>-1.352186157158073</v>
       </c>
       <c r="D14">
-        <v>0.8726927221574072</v>
+        <v>0.7726927221574073</v>
+      </c>
+      <c r="E14">
+        <v>0.7729977607768376</v>
+      </c>
+      <c r="F14">
+        <v>-0.350807574684342</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -800,16 +896,25 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1.638888601583445</v>
+        <v>0.3859902777320356</v>
       </c>
       <c r="C15">
-        <v>0.7300980613247755</v>
+        <v>0.6434825976960499</v>
       </c>
       <c r="D15">
-        <v>-0.4369056236708612</v>
+        <v>-0.4934022355169737</v>
       </c>
       <c r="E15">
-        <v>0.823166457423955</v>
+        <v>0.1214031351033313</v>
+      </c>
+      <c r="F15">
+        <v>0.8323822673101013</v>
+      </c>
+      <c r="G15">
+        <v>-0.1303735383421211</v>
+      </c>
+      <c r="H15">
+        <v>-0.246702326339854</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -817,13 +922,19 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.5691447583182824</v>
+        <v>-0.6543555385234668</v>
       </c>
       <c r="C16">
-        <v>-0.6095362546328709</v>
+        <v>-0.0826122796552945</v>
       </c>
       <c r="D16">
-        <v>0.7364293948830947</v>
+        <v>0.6597516363480915</v>
+      </c>
+      <c r="E16">
+        <v>-0.2413778612230498</v>
+      </c>
+      <c r="F16">
+        <v>-0.3334393888807144</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -831,16 +942,25 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-0.6976594656405866</v>
+        <v>0.5716284253403758</v>
       </c>
       <c r="C17">
-        <v>0.5775524820198799</v>
+        <v>-0.2858830662771122</v>
       </c>
       <c r="D17">
-        <v>-0.4714894041437753</v>
+        <v>-0.4923163017439292</v>
       </c>
       <c r="E17">
-        <v>-0.05917995355126909</v>
+        <v>-0.46067261173645</v>
+      </c>
+      <c r="F17">
+        <v>0.5187218248135741</v>
+      </c>
+      <c r="G17">
+        <v>-0.1040809054417174</v>
+      </c>
+      <c r="H17">
+        <v>-0.2401786423906215</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -848,19 +968,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.8670650067555639</v>
+        <v>-0.2028037770082451</v>
       </c>
       <c r="C18">
-        <v>-0.3860296437829855</v>
+        <v>-0.2640142806180155</v>
       </c>
       <c r="D18">
-        <v>-0.01639910721239923</v>
+        <v>0.6041815851743639</v>
       </c>
       <c r="E18">
-        <v>-0.2045844989428098</v>
+        <v>-0.01425849034896159</v>
       </c>
       <c r="F18">
-        <v>-0.7065631210311423</v>
+        <v>-0.1973977960517517</v>
+      </c>
+      <c r="G18">
+        <v>0.2799725775939605</v>
+      </c>
+      <c r="H18">
+        <v>-0.7063587244605452</v>
+      </c>
+      <c r="I18">
+        <v>0.03677594096590109</v>
+      </c>
+      <c r="J18">
+        <v>0.3222205742383169</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -868,16 +1000,25 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-0.6469556000565626</v>
+        <v>0.3432556289007868</v>
       </c>
       <c r="C19">
-        <v>-0.05020022730686918</v>
+        <v>-0.06517645265582572</v>
       </c>
       <c r="D19">
-        <v>-0.1982205035962927</v>
+        <v>-0.2311989161462216</v>
       </c>
       <c r="E19">
-        <v>-0.6895924577170722</v>
+        <v>0.3002863210352461</v>
+      </c>
+      <c r="F19">
+        <v>-0.699994729114028</v>
+      </c>
+      <c r="G19">
+        <v>0.03327876044994732</v>
+      </c>
+      <c r="H19">
+        <v>0.3391912375523869</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -885,25 +1026,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.07085026560420316</v>
+        <v>-0.1101484232351493</v>
       </c>
       <c r="C20">
-        <v>-0.2237210700904058</v>
+        <v>0.3218931678759722</v>
       </c>
       <c r="D20">
-        <v>-0.6965766802542579</v>
+        <v>-0.7254952956081411</v>
       </c>
       <c r="E20">
-        <v>0.02041863870245458</v>
+        <v>0.02371204796288218</v>
       </c>
       <c r="F20">
-        <v>0.02121790425625458</v>
+        <v>0.3322070150152013</v>
       </c>
       <c r="G20">
-        <v>-0.04325580638174636</v>
+        <v>0.02127285736517887</v>
       </c>
       <c r="H20">
-        <v>-0.2839314448180338</v>
+        <v>-0.4693921390214582</v>
+      </c>
+      <c r="I20">
+        <v>-0.3986912986222376</v>
+      </c>
+      <c r="J20">
+        <v>0.4073443955997085</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -911,22 +1058,25 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.1394546195617486</v>
+        <v>-0.641228845079484</v>
       </c>
       <c r="C21">
-        <v>-0.6301937814598095</v>
+        <v>0.1038521619659191</v>
       </c>
       <c r="D21">
-        <v>0.06366118589851621</v>
+        <v>0.3985899138096496</v>
       </c>
       <c r="E21">
-        <v>0.07226491068961671</v>
+        <v>0.0645154045612405</v>
       </c>
       <c r="F21">
-        <v>0.008274867338030012</v>
+        <v>-0.4183451325880961</v>
       </c>
       <c r="G21">
-        <v>-0.2341799840419811</v>
+        <v>-0.3471606249024612</v>
+      </c>
+      <c r="H21">
+        <v>0.4570958563757612</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -934,31 +1084,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.5677291480249518</v>
+        <v>0.4610545472445074</v>
       </c>
       <c r="C22">
-        <v>0.1366148674942425</v>
+        <v>0.1374690861569668</v>
       </c>
       <c r="D22">
-        <v>0.1400625188248736</v>
+        <v>-0.3505475244528392</v>
       </c>
       <c r="E22">
-        <v>0.1652043517828843</v>
+        <v>-0.1902311404576069</v>
       </c>
       <c r="F22">
-        <v>-0.1456967999320855</v>
+        <v>0.5455790404856569</v>
       </c>
       <c r="G22">
-        <v>-0.265250679163225</v>
+        <v>0.299654622565137</v>
       </c>
       <c r="H22">
-        <v>0.2966455940071838</v>
+        <v>0.008791713216034058</v>
       </c>
       <c r="I22">
-        <v>0.5932304299558757</v>
+        <v>0.8964082616126554</v>
       </c>
       <c r="J22">
-        <v>0.1638906699427426</v>
+        <v>-0.2145220409632768</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -966,28 +1116,28 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.273272270903849</v>
+        <v>0.2741264895665733</v>
       </c>
       <c r="C23">
-        <v>0.1454671135453806</v>
+        <v>-0.3451429297323322</v>
       </c>
       <c r="D23">
-        <v>0.1060332681385563</v>
+        <v>-0.2494022241019349</v>
       </c>
       <c r="E23">
-        <v>-0.1968792590280729</v>
+        <v>0.4943965813896695</v>
       </c>
       <c r="F23">
-        <v>-0.1582126596639112</v>
+        <v>0.4066926420644508</v>
       </c>
       <c r="G23">
-        <v>0.296182432882435</v>
+        <v>0.008328552091285302</v>
       </c>
       <c r="H23">
-        <v>0.5930572944343984</v>
+        <v>0.8962351260911782</v>
       </c>
       <c r="I23">
-        <v>0.1629890266876211</v>
+        <v>-0.2154236842183983</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -995,25 +1145,25 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.2350309797936282</v>
+        <v>-0.2555790634840845</v>
       </c>
       <c r="C24">
-        <v>-0.08746494274900357</v>
+        <v>-0.4429004349894948</v>
       </c>
       <c r="D24">
-        <v>-0.3040262609583024</v>
+        <v>0.3872495794594399</v>
       </c>
       <c r="E24">
-        <v>-0.1973299704855191</v>
+        <v>0.3675753312428429</v>
       </c>
       <c r="F24">
-        <v>0.3129191973456891</v>
+        <v>0.02506531655453942</v>
       </c>
       <c r="G24">
-        <v>0.5572986989743148</v>
+        <v>0.8604765306310946</v>
       </c>
       <c r="H24">
-        <v>0.1279016237351869</v>
+        <v>-0.2505110871708324</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1021,34 +1171,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.1507508263330387</v>
+        <v>-0.50618631857353</v>
       </c>
       <c r="C25">
-        <v>-0.3217864580603025</v>
+        <v>0.3694893823574399</v>
       </c>
       <c r="D25">
-        <v>-0.1960512891656476</v>
+        <v>0.3688540125627144</v>
       </c>
       <c r="E25">
-        <v>0.3148114689455074</v>
+        <v>0.02695758815435773</v>
       </c>
       <c r="F25">
-        <v>0.5697441715497741</v>
+        <v>0.8729220032065539</v>
       </c>
       <c r="G25">
-        <v>0.03063906929960958</v>
+        <v>-0.3477736416064098</v>
       </c>
       <c r="H25">
-        <v>0.7663740058302263</v>
+        <v>1.826253868187348</v>
       </c>
       <c r="I25">
-        <v>1.824995026786122</v>
+        <v>7.556039159993129</v>
       </c>
       <c r="J25">
-        <v>7.555055938636855</v>
+        <v>-4.40538983266147</v>
       </c>
       <c r="K25">
-        <v>-4.334933866960823</v>
+        <v>1.220912581163491</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1056,31 +1206,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.7</v>
+        <v>-0.008724159582257585</v>
       </c>
       <c r="C26">
-        <v>-0.464905301728362</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="D26">
-        <v>0.2</v>
+        <v>-0.0878538807911497</v>
       </c>
       <c r="E26">
-        <v>0.5011524282971408</v>
+        <v>0.8043302599539206</v>
       </c>
       <c r="F26">
-        <v>-0.03994266626471871</v>
+        <v>-0.4183553771707381</v>
       </c>
       <c r="G26">
-        <v>0.7401201376428788</v>
+        <v>1.8</v>
       </c>
       <c r="H26">
-        <v>1.8</v>
+        <v>7.531044133207007</v>
       </c>
       <c r="I26">
-        <v>7.531044133207007</v>
+        <v>-4.429401638091318</v>
       </c>
       <c r="J26">
-        <v>-4.365333711727925</v>
+        <v>1.190512736396389</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1088,28 +1238,28 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-0.4684200537317005</v>
+        <v>0.09648524799666147</v>
       </c>
       <c r="C27">
-        <v>0.0006409622336119858</v>
+        <v>-0.2872129185575377</v>
       </c>
       <c r="D27">
-        <v>0.4601628392123538</v>
+        <v>0.7633406708691336</v>
       </c>
       <c r="E27">
-        <v>0.03681185380437252</v>
+        <v>-0.3416008571016468</v>
       </c>
       <c r="F27">
-        <v>0.8230062518564651</v>
+        <v>1.882886114213586</v>
       </c>
       <c r="G27">
-        <v>1.880758878938034</v>
+        <v>7.611803012145042</v>
       </c>
       <c r="H27">
-        <v>7.610722038427587</v>
+        <v>-4.349723732870737</v>
       </c>
       <c r="I27">
-        <v>-4.279326695870229</v>
+        <v>1.276519752254085</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1117,25 +1267,25 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0.09999999999999998</v>
+        <v>-0.1878538807911497</v>
       </c>
       <c r="C28">
-        <v>0.3011524282971408</v>
+        <v>0.6043302599539206</v>
       </c>
       <c r="D28">
-        <v>0.06005733373528133</v>
+        <v>-0.318355377170738</v>
       </c>
       <c r="E28">
-        <v>0.8401201376428787</v>
+        <v>1.9</v>
       </c>
       <c r="F28">
-        <v>1.9</v>
+        <v>7.631044133207007</v>
       </c>
       <c r="G28">
-        <v>7.631044133207007</v>
+        <v>-4.329401638091317</v>
       </c>
       <c r="H28">
-        <v>-4.265333711727925</v>
+        <v>1.290512736396388</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1143,34 +1293,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.07496140058999959</v>
+        <v>0.2282164310667802</v>
       </c>
       <c r="C29">
-        <v>-0.2806826402081041</v>
+        <v>-0.6590953511141234</v>
       </c>
       <c r="D29">
-        <v>0.7208716558256236</v>
+        <v>1.780751518182745</v>
       </c>
       <c r="E29">
-        <v>1.880694102772056</v>
+        <v>7.611738235979063</v>
       </c>
       <c r="F29">
-        <v>7.611900695477078</v>
+        <v>-4.348545075821247</v>
       </c>
       <c r="G29">
-        <v>-4.276482381156009</v>
+        <v>1.279364066968304</v>
       </c>
       <c r="H29">
-        <v>0.6557717715642448</v>
+        <v>2.431239913711036</v>
       </c>
       <c r="I29">
-        <v>1.653561914759492</v>
+        <v>-1.709031174555179</v>
       </c>
       <c r="J29">
-        <v>-1.96617036333055</v>
+        <v>-0.7145886096972744</v>
       </c>
       <c r="K29">
-        <v>-1.639379512226871</v>
+        <v>0.8634600626594378</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1178,31 +1328,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.3635789345377631</v>
+        <v>-0.7419916454437824</v>
       </c>
       <c r="C30">
-        <v>0.7590864443579128</v>
+        <v>1.818966306715034</v>
       </c>
       <c r="D30">
-        <v>1.815917503196673</v>
+        <v>7.54696163640368</v>
       </c>
       <c r="E30">
-        <v>7.591047573389803</v>
+        <v>-4.369398197908522</v>
       </c>
       <c r="F30">
-        <v>-4.287932759492201</v>
+        <v>1.267913688632112</v>
       </c>
       <c r="G30">
-        <v>0.7595039694328304</v>
+        <v>2.534972111579622</v>
       </c>
       <c r="H30">
-        <v>1.706962752744387</v>
+        <v>-1.655630336570284</v>
       </c>
       <c r="I30">
-        <v>-1.933287683657102</v>
+        <v>-0.6817059300238271</v>
       </c>
       <c r="J30">
-        <v>-1.650844140781678</v>
+        <v>0.851995434104631</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1210,28 +1360,28 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>1.121122669395061</v>
+        <v>2.181002531752182</v>
       </c>
       <c r="C31">
-        <v>-2.666357285191768</v>
+        <v>3.064686848015239</v>
       </c>
       <c r="D31">
-        <v>9.383381126272138</v>
+        <v>-2.577064645026188</v>
       </c>
       <c r="E31">
-        <v>-3.184178317497549</v>
+        <v>2.371668130626764</v>
       </c>
       <c r="F31">
-        <v>1.914783482641323</v>
+        <v>3.690251624788115</v>
       </c>
       <c r="G31">
-        <v>2.346107622870196</v>
+        <v>-1.016485466444475</v>
       </c>
       <c r="H31">
-        <v>-1.930077137536609</v>
+        <v>-0.6784953839033339</v>
       </c>
       <c r="I31">
-        <v>-1.647773577729565</v>
+        <v>0.8550659971567438</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1239,25 +1389,25 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-5.4</v>
+        <v>0.3310441332070067</v>
       </c>
       <c r="C32">
-        <v>11.73104413320701</v>
+        <v>-0.2294016380913177</v>
       </c>
       <c r="D32">
-        <v>-3.265333711727925</v>
+        <v>2.290512736396388</v>
       </c>
       <c r="E32">
-        <v>1.467225639135418</v>
+        <v>3.24269378128221</v>
       </c>
       <c r="F32">
-        <v>2.36956845314902</v>
+        <v>-0.993024636165651</v>
       </c>
       <c r="G32">
-        <v>-1.850117300589673</v>
+        <v>-0.598535546956398</v>
       </c>
       <c r="H32">
-        <v>-1.631122027629067</v>
+        <v>0.871717547257242</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1265,34 +1415,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>11.96044577129832</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>-2.778420849106539</v>
+        <v>2.777425599017775</v>
       </c>
       <c r="D33">
-        <v>1.056990901806941</v>
+        <v>2.832459043953733</v>
       </c>
       <c r="E33">
-        <v>2.000128609620077</v>
+        <v>-1.362464479694594</v>
       </c>
       <c r="F33">
-        <v>-1.92833567084638</v>
+        <v>-0.6767539172131047</v>
       </c>
       <c r="G33">
-        <v>-1.580124539084693</v>
+        <v>0.922715035801616</v>
       </c>
       <c r="H33">
-        <v>1.000096564291027</v>
+        <v>-0.4897916062055997</v>
       </c>
       <c r="I33">
-        <v>-1.317597449301843</v>
+        <v>-0.1816683545813902</v>
       </c>
       <c r="J33">
-        <v>-0.2941501239389197</v>
+        <v>0.3622194965144701</v>
       </c>
       <c r="K33">
-        <v>-0.07494009289327153</v>
+        <v>1.43887929155413</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1300,31 +1450,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-5.555846448124313</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>1.157640903106042</v>
+        <v>2.933109045252834</v>
       </c>
       <c r="D34">
-        <v>3.765556702445181</v>
+        <v>0.4029636131305101</v>
       </c>
       <c r="E34">
-        <v>-1.478705217794101</v>
+        <v>-0.2271234641608255</v>
       </c>
       <c r="F34">
-        <v>-1.326797459395479</v>
+        <v>1.17604211549083</v>
       </c>
       <c r="G34">
-        <v>1.033834169784953</v>
+        <v>-0.4560540007116742</v>
       </c>
       <c r="H34">
-        <v>-1.297027454953181</v>
+        <v>-0.161098360232728</v>
       </c>
       <c r="I34">
-        <v>-0.2759695694743982</v>
+        <v>0.3804000509789915</v>
       </c>
       <c r="J34">
-        <v>-0.06559899311659473</v>
+        <v>1.448220391330807</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1332,28 +1482,28 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-1.775468142146792</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>3.606552408240986</v>
+        <v>0.2439593189263149</v>
       </c>
       <c r="D35">
-        <v>0.3927472992886858</v>
+        <v>1.644329052921961</v>
       </c>
       <c r="E35">
-        <v>-0.815471244356246</v>
+        <v>1.687368330530063</v>
       </c>
       <c r="F35">
-        <v>1.050764064583774</v>
+        <v>-0.4391241059128532</v>
       </c>
       <c r="G35">
-        <v>-1.276289050369584</v>
+        <v>-0.1403599556491315</v>
       </c>
       <c r="H35">
-        <v>-0.2369997152024154</v>
+        <v>0.4193699052509743</v>
       </c>
       <c r="I35">
-        <v>-0.06103918630807925</v>
+        <v>1.452780198139322</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1361,25 +1511,25 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>3.362593089314671</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>2.041560591335838</v>
+        <v>3.293142344969113</v>
       </c>
       <c r="D36">
-        <v>-0.4488436349812019</v>
+        <v>2.053995939905107</v>
       </c>
       <c r="E36">
-        <v>1.022152487701746</v>
+        <v>-0.4677356827948814</v>
       </c>
       <c r="F36">
-        <v>-1.267409531620529</v>
+        <v>-0.1314804369000768</v>
       </c>
       <c r="G36">
-        <v>-0.2339684564792179</v>
+        <v>0.4224011639741718</v>
       </c>
       <c r="H36">
-        <v>-0.05387331242391724</v>
+        <v>1.459946072023484</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1387,34 +1537,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-1.251581753633275</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>-0.4048401142652269</v>
+        <v>2.097999460621082</v>
       </c>
       <c r="D37">
-        <v>2.041911811970081</v>
+        <v>0.5520236414734543</v>
       </c>
       <c r="E37">
-        <v>-0.7205659529734301</v>
+        <v>0.4153631417470225</v>
       </c>
       <c r="F37">
-        <v>0.04372223049533375</v>
+        <v>0.7000918509487235</v>
       </c>
       <c r="G37">
-        <v>-0.007636837032393318</v>
+        <v>1.506182547415008</v>
       </c>
       <c r="H37">
-        <v>0.8479688157375591</v>
+        <v>0.829251231258695</v>
       </c>
       <c r="I37">
-        <v>1.25223989959133</v>
+        <v>0.007026164613634506</v>
       </c>
       <c r="J37">
-        <v>-0.374502102413146</v>
+        <v>0.2451984062062991</v>
       </c>
       <c r="K37">
-        <v>0.5726471533985631</v>
+        <v>0.2839967635768232</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1422,31 +1572,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>-2.502839574886309</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0.3272322987471768</v>
+        <v>-1.16265587174945</v>
       </c>
       <c r="D38">
-        <v>0.4469848177231339</v>
+        <v>1.582913912443586</v>
       </c>
       <c r="E38">
-        <v>0.8706350755272747</v>
+        <v>1.527004695980664</v>
       </c>
       <c r="F38">
-        <v>0.117907882357045</v>
+        <v>1.631727266804446</v>
       </c>
       <c r="G38">
-        <v>1.002378211211067</v>
+        <v>0.9836606267322026</v>
       </c>
       <c r="H38">
-        <v>1.328222058779559</v>
+        <v>0.0830083238018631</v>
       </c>
       <c r="I38">
-        <v>-0.3192716944086839</v>
+        <v>0.3004288142107612</v>
       </c>
       <c r="J38">
-        <v>0.6279064227454967</v>
+        <v>0.3392560329237568</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1454,28 +1604,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>1.489888170496627</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>-0.9066800167714175</v>
+        <v>0.229249077949035</v>
       </c>
       <c r="D39">
-        <v>0.155954702582477</v>
+        <v>0.8123243230358668</v>
       </c>
       <c r="E39">
-        <v>0.4469226739274177</v>
+        <v>1.960742058374819</v>
       </c>
       <c r="F39">
-        <v>1.405175527116285</v>
+        <v>1.386457942637421</v>
       </c>
       <c r="G39">
-        <v>1.761772748361508</v>
+        <v>0.5165590133838123</v>
       </c>
       <c r="H39">
-        <v>-0.08640829757291613</v>
+        <v>0.533292211046529</v>
       </c>
       <c r="I39">
-        <v>0.7178497215856652</v>
+        <v>0.4291993317639253</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1483,25 +1633,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-1.135929094720453</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0.1901936229058521</v>
+        <v>0.8465632433592418</v>
       </c>
       <c r="D40">
-        <v>0.4067116974473777</v>
+        <v>1.920531081894779</v>
       </c>
       <c r="E40">
-        <v>1.307824600060258</v>
+        <v>1.289107015581394</v>
       </c>
       <c r="F40">
-        <v>1.763524584087491</v>
+        <v>0.5183108491097954</v>
       </c>
       <c r="G40">
-        <v>0.05631297195478169</v>
+        <v>0.6760134805742268</v>
       </c>
       <c r="H40">
-        <v>0.7995280335210708</v>
+        <v>0.510877643699331</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1509,34 +1659,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.6563696204533898</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>-0.9430023938530638</v>
+        <v>0.5708169905943377</v>
       </c>
       <c r="D41">
-        <v>0.0367673711655101</v>
+        <v>0.01804978668664603</v>
       </c>
       <c r="E41">
-        <v>1.062488093233128</v>
+        <v>-0.1827256417445682</v>
       </c>
       <c r="F41">
-        <v>-0.1961838121817862</v>
+        <v>0.4235166964376589</v>
       </c>
       <c r="G41">
-        <v>0.956290717492152</v>
+        <v>0.6676403276704121</v>
       </c>
       <c r="H41">
-        <v>0.9390091117333981</v>
+        <v>0.621340604993847</v>
       </c>
       <c r="I41">
-        <v>0.6684365430787267</v>
+        <v>0.79956309247072</v>
       </c>
       <c r="J41">
-        <v>0.6184138919984576</v>
+        <v>0.6670299006771074</v>
       </c>
       <c r="K41">
-        <v>-0.420559058842485</v>
+        <v>0.4311770617334787</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1544,31 +1694,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>-1.513819384447401</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0.04852487255142535</v>
+        <v>0.02980728807256128</v>
       </c>
       <c r="D42">
-        <v>1.02138929704445</v>
+        <v>-0.2238244379332457</v>
       </c>
       <c r="E42">
-        <v>-0.03642422435359549</v>
+        <v>0.5832762842658497</v>
       </c>
       <c r="F42">
-        <v>0.9060503632343568</v>
+        <v>0.617399973412617</v>
       </c>
       <c r="G42">
-        <v>0.8394482968982544</v>
+        <v>0.5217797901587033</v>
       </c>
       <c r="H42">
-        <v>0.4543866843184787</v>
+        <v>0.585513233710472</v>
       </c>
       <c r="I42">
-        <v>0.3783947748961793</v>
+        <v>0.4270107835748291</v>
       </c>
       <c r="J42">
-        <v>-0.6956347390159716</v>
+        <v>0.1561013815599921</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1576,28 +1726,28 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.01871758447886407</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>1.11501739770388</v>
+        <v>-0.1301963372738157</v>
       </c>
       <c r="D43">
-        <v>-0.1088939025380568</v>
+        <v>0.5108066060813883</v>
       </c>
       <c r="E43">
-        <v>0.9542188377635341</v>
+        <v>0.6655684479417943</v>
       </c>
       <c r="F43">
-        <v>0.8863143564084197</v>
+        <v>0.5686458496688687</v>
       </c>
       <c r="G43">
-        <v>0.5277788761421647</v>
+        <v>0.658905425534158</v>
       </c>
       <c r="H43">
-        <v>0.4061823504624726</v>
+        <v>0.4547983591411224</v>
       </c>
       <c r="I43">
-        <v>-0.7262877532125311</v>
+        <v>0.1254483673634326</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1605,25 +1755,25 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>1.245213734977696</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>-0.4435603598669502</v>
+        <v>0.1761401487524949</v>
       </c>
       <c r="D44">
-        <v>0.7910435601316692</v>
+        <v>0.5023931703099294</v>
       </c>
       <c r="E44">
-        <v>0.7556047557123833</v>
+        <v>0.4379362489728322</v>
       </c>
       <c r="F44">
-        <v>0.4439701853026605</v>
+        <v>0.5750967346946538</v>
       </c>
       <c r="G44">
-        <v>0.3518351862557125</v>
+        <v>0.4004511949343623</v>
       </c>
       <c r="H44">
-        <v>-0.7271114919190178</v>
+        <v>0.1246246286569459</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1631,31 +1781,31 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>-0.6197005086194451</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0.7181143533998124</v>
+        <v>0.4294639635780726</v>
       </c>
       <c r="D45">
-        <v>0.7150100740400092</v>
+        <v>0.3973415673004581</v>
       </c>
       <c r="E45">
-        <v>0.4805475651659776</v>
+        <v>0.6116741145579709</v>
       </c>
       <c r="F45">
-        <v>0.4691793604203695</v>
+        <v>0.5177953690990194</v>
       </c>
       <c r="G45">
-        <v>-0.6750965665458746</v>
+        <v>0.1766395540300891</v>
       </c>
       <c r="H45">
-        <v>-0.6161240214144073</v>
+        <v>-0.103717404667151</v>
       </c>
       <c r="I45">
-        <v>0.8511916275658962</v>
+        <v>0.116853017112689</v>
       </c>
       <c r="J45">
-        <v>-0.1459109768251778</v>
+        <v>0.0656055045824076</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1663,28 +1813,28 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0.2886503898217399</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>0.4738272478076624</v>
+        <v>0.1561587410681113</v>
       </c>
       <c r="D46">
-        <v>0.3271982582410118</v>
+        <v>0.4583248076330051</v>
       </c>
       <c r="E46">
-        <v>0.4637153184371812</v>
+        <v>0.512331327115831</v>
       </c>
       <c r="F46">
-        <v>-0.5509036424110003</v>
+        <v>0.3008324781649634</v>
       </c>
       <c r="G46">
-        <v>-0.5424579124505868</v>
+        <v>-0.03005129570333048</v>
       </c>
       <c r="H46">
-        <v>0.8964406423235118</v>
+        <v>0.1621020318703046</v>
       </c>
       <c r="I46">
-        <v>-0.11754926123551</v>
+        <v>0.09396722017207537</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1692,25 +1842,25 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0.3176685067395511</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>0.213735171386304</v>
+        <v>0.3448617207782973</v>
       </c>
       <c r="D47">
-        <v>0.5037969521060717</v>
+        <v>0.5524129607847215</v>
       </c>
       <c r="E47">
-        <v>-0.4552235940316929</v>
+        <v>0.3965125265442708</v>
       </c>
       <c r="F47">
-        <v>-0.4915386463895146</v>
+        <v>0.02086797035774168</v>
       </c>
       <c r="G47">
-        <v>0.9509326689501449</v>
+        <v>0.2165940584969377</v>
       </c>
       <c r="H47">
-        <v>-0.04367511988188261</v>
+        <v>0.1678413615257028</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1718,22 +1868,22 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.1311265493919933</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0.3017385060694977</v>
+        <v>0.3503545147481475</v>
       </c>
       <c r="D48">
-        <v>-0.6013698086517532</v>
+        <v>0.2503663119242107</v>
       </c>
       <c r="E48">
-        <v>-0.5232511070649792</v>
+        <v>-0.010844490317723</v>
       </c>
       <c r="F48">
-        <v>1.07319180231238</v>
+        <v>0.3388531918591725</v>
       </c>
       <c r="G48">
-        <v>0.04214212299827119</v>
+        <v>0.2536586044058566</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1741,19 +1891,19 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.04861600867864979</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>-0.7883627891688714</v>
+        <v>0.06337333140709242</v>
       </c>
       <c r="D49">
-        <v>-0.6394046087057603</v>
+        <v>-0.126997991958504</v>
       </c>
       <c r="E49">
-        <v>1.005366468817357</v>
+        <v>0.2710278583641497</v>
       </c>
       <c r="F49">
-        <v>0.07244715649412109</v>
+        <v>0.2839636379017065</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1761,16 +1911,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.8517361205759637</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>-0.7790693069583057</v>
+        <v>-0.2666626902110494</v>
       </c>
       <c r="D50">
-        <v>0.7168274166303803</v>
+        <v>-0.0175111938228269</v>
       </c>
       <c r="E50">
-        <v>-0.2470284112763324</v>
+        <v>-0.03551192986874702</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1778,13 +1928,13 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.5124066167472563</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>0.7309800858842266</v>
+        <v>-0.003358524568980586</v>
       </c>
       <c r="D51">
-        <v>-0.18633528966771</v>
+        <v>0.0251811917398754</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1792,10 +1942,10 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0.7343386104532073</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>-0.2108934154697977</v>
+        <v>0.0006230659377876868</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1803,7 +1953,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.2115164814075854</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/DOMUSE/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -1195,10 +1195,10 @@
         <v>7.556039159993129</v>
       </c>
       <c r="J25">
-        <v>-4.40538983266147</v>
+        <v>-4.341321906298077</v>
       </c>
       <c r="K25">
-        <v>1.220912581163491</v>
+        <v>0.5976254839025203</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1227,10 +1227,10 @@
         <v>7.531044133207007</v>
       </c>
       <c r="I26">
-        <v>-4.429401638091318</v>
+        <v>-4.365333711727925</v>
       </c>
       <c r="J26">
-        <v>1.190512736396389</v>
+        <v>0.5672256391354182</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1256,10 +1256,10 @@
         <v>7.611803012145042</v>
       </c>
       <c r="H27">
-        <v>-4.349723732870737</v>
+        <v>-4.285655806507345</v>
       </c>
       <c r="I27">
-        <v>1.276519752254085</v>
+        <v>0.6532326549931144</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1282,10 +1282,10 @@
         <v>7.631044133207007</v>
       </c>
       <c r="G28">
-        <v>-4.329401638091317</v>
+        <v>-4.265333711727925</v>
       </c>
       <c r="H28">
-        <v>1.290512736396388</v>
+        <v>0.6672256391354182</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1305,22 +1305,22 @@
         <v>7.611738235979063</v>
       </c>
       <c r="F29">
-        <v>-4.348545075821247</v>
+        <v>-4.284477149457854</v>
       </c>
       <c r="G29">
-        <v>1.279364066968304</v>
+        <v>0.6560769697073342</v>
       </c>
       <c r="H29">
-        <v>2.431239913711036</v>
+        <v>1.658114585577847</v>
       </c>
       <c r="I29">
-        <v>-1.709031174555179</v>
+        <v>-1.966123838979201</v>
       </c>
       <c r="J29">
-        <v>-0.7145886096972744</v>
+        <v>-1.647175090369943</v>
       </c>
       <c r="K29">
-        <v>0.8634600626594378</v>
+        <v>0.9415002252234601</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1337,22 +1337,22 @@
         <v>7.54696163640368</v>
       </c>
       <c r="E30">
-        <v>-4.369398197908522</v>
+        <v>-4.305330271545129</v>
       </c>
       <c r="F30">
-        <v>1.267913688632112</v>
+        <v>0.6446265913711419</v>
       </c>
       <c r="G30">
-        <v>2.534972111579622</v>
+        <v>1.761846783446432</v>
       </c>
       <c r="H30">
-        <v>-1.655630336570284</v>
+        <v>-1.912723000994306</v>
       </c>
       <c r="I30">
-        <v>-0.6817059300238271</v>
+        <v>-1.614292410696496</v>
       </c>
       <c r="J30">
-        <v>0.851995434104631</v>
+        <v>0.9300355966686533</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1366,22 +1366,22 @@
         <v>3.064686848015239</v>
       </c>
       <c r="D31">
-        <v>-2.577064645026188</v>
+        <v>-2.512996718662795</v>
       </c>
       <c r="E31">
-        <v>2.371668130626764</v>
+        <v>1.748381033365794</v>
       </c>
       <c r="F31">
-        <v>3.690251624788115</v>
+        <v>2.917126296654925</v>
       </c>
       <c r="G31">
-        <v>-1.016485466444475</v>
+        <v>-1.273578130868497</v>
       </c>
       <c r="H31">
-        <v>-0.6784953839033339</v>
+        <v>-1.611081864576003</v>
       </c>
       <c r="I31">
-        <v>0.8550659971567438</v>
+        <v>0.9331061597207662</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1392,22 +1392,22 @@
         <v>0.3310441332070067</v>
       </c>
       <c r="C32">
-        <v>-0.2294016380913177</v>
+        <v>-0.165333711727925</v>
       </c>
       <c r="D32">
-        <v>2.290512736396388</v>
+        <v>1.667225639135418</v>
       </c>
       <c r="E32">
-        <v>3.24269378128221</v>
+        <v>2.46956845314902</v>
       </c>
       <c r="F32">
-        <v>-0.993024636165651</v>
+        <v>-1.250117300589673</v>
       </c>
       <c r="G32">
-        <v>-0.598535546956398</v>
+        <v>-1.531122027629067</v>
       </c>
       <c r="H32">
-        <v>0.871717547257242</v>
+        <v>0.9497577098212645</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1415,34 +1415,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.06406792636339276</v>
       </c>
       <c r="C33">
-        <v>2.777425599017775</v>
+        <v>2.154138501756804</v>
       </c>
       <c r="D33">
-        <v>2.832459043953733</v>
+        <v>2.059333715820543</v>
       </c>
       <c r="E33">
-        <v>-1.362464479694594</v>
+        <v>-1.619557144118616</v>
       </c>
       <c r="F33">
-        <v>-0.6767539172131047</v>
+        <v>-1.609340397885774</v>
       </c>
       <c r="G33">
-        <v>0.922715035801616</v>
+        <v>1.000755198365638</v>
       </c>
       <c r="H33">
-        <v>-0.4897916062055997</v>
+        <v>-1.324862745064436</v>
       </c>
       <c r="I33">
-        <v>-0.1816683545813902</v>
+        <v>-0.262338436028287</v>
       </c>
       <c r="J33">
-        <v>0.3622194965144701</v>
+        <v>-0.07586005108070992</v>
       </c>
       <c r="K33">
-        <v>1.43887929155413</v>
+        <v>1.015792704729378</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1450,31 +1450,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>-0.6232870972609703</v>
       </c>
       <c r="C34">
-        <v>2.933109045252834</v>
+        <v>2.159983717119644</v>
       </c>
       <c r="D34">
-        <v>0.4029636131305101</v>
+        <v>0.145870948706488</v>
       </c>
       <c r="E34">
-        <v>-0.2271234641608255</v>
+        <v>-1.159709944833494</v>
       </c>
       <c r="F34">
-        <v>1.17604211549083</v>
+        <v>1.254082278054852</v>
       </c>
       <c r="G34">
-        <v>-0.4560540007116742</v>
+        <v>-1.291125139570511</v>
       </c>
       <c r="H34">
-        <v>-0.161098360232728</v>
+        <v>-0.2417684416796248</v>
       </c>
       <c r="I34">
-        <v>0.3804000509789915</v>
+        <v>-0.05767949661618843</v>
       </c>
       <c r="J34">
-        <v>1.448220391330807</v>
+        <v>1.025133804506055</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1482,28 +1482,28 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.77312532813319</v>
       </c>
       <c r="C35">
-        <v>0.2439593189263149</v>
+        <v>-0.01313334549770717</v>
       </c>
       <c r="D35">
-        <v>1.644329052921961</v>
+        <v>0.711742572249292</v>
       </c>
       <c r="E35">
-        <v>1.687368330530063</v>
+        <v>1.765408493094085</v>
       </c>
       <c r="F35">
-        <v>-0.4391241059128532</v>
+        <v>-1.27419524477169</v>
       </c>
       <c r="G35">
-        <v>-0.1403599556491315</v>
+        <v>-0.2210300370960283</v>
       </c>
       <c r="H35">
-        <v>0.4193699052509743</v>
+        <v>-0.01870964234420563</v>
       </c>
       <c r="I35">
-        <v>1.452780198139322</v>
+        <v>1.02969361131457</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1511,25 +1511,25 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>-0.2570926644240221</v>
       </c>
       <c r="C36">
-        <v>3.293142344969113</v>
+        <v>2.360555864296444</v>
       </c>
       <c r="D36">
-        <v>2.053995939905107</v>
+        <v>2.132036102469129</v>
       </c>
       <c r="E36">
-        <v>-0.4677356827948814</v>
+        <v>-1.302806821653718</v>
       </c>
       <c r="F36">
-        <v>-0.1314804369000768</v>
+        <v>-0.2121505183469736</v>
       </c>
       <c r="G36">
-        <v>0.4224011639741718</v>
+        <v>-0.01567838362100815</v>
       </c>
       <c r="H36">
-        <v>1.459946072023484</v>
+        <v>1.036859485198733</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1537,34 +1537,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.9325864806726689</v>
       </c>
       <c r="C37">
-        <v>2.097999460621082</v>
+        <v>2.176039623185105</v>
       </c>
       <c r="D37">
-        <v>0.5520236414734543</v>
+        <v>-0.283047497385382</v>
       </c>
       <c r="E37">
-        <v>0.4153631417470225</v>
+        <v>0.3346930603001257</v>
       </c>
       <c r="F37">
-        <v>0.7000918509487235</v>
+        <v>0.2620123033535435</v>
       </c>
       <c r="G37">
-        <v>1.506182547415008</v>
+        <v>1.083095960590256</v>
       </c>
       <c r="H37">
-        <v>0.829251231258695</v>
+        <v>1.26469213391276</v>
       </c>
       <c r="I37">
-        <v>0.007026164613634506</v>
+        <v>-0.3325428966199979</v>
       </c>
       <c r="J37">
-        <v>0.2451984062062991</v>
+        <v>0.5727158612572509</v>
       </c>
       <c r="K37">
-        <v>0.2839967635768232</v>
+        <v>0.4929530572011345</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1572,31 +1572,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.07804016256402241</v>
       </c>
       <c r="C38">
-        <v>-1.16265587174945</v>
+        <v>-1.997727010608287</v>
       </c>
       <c r="D38">
-        <v>1.582913912443586</v>
+        <v>1.50224383099669</v>
       </c>
       <c r="E38">
-        <v>1.527004695980664</v>
+        <v>1.088925148385484</v>
       </c>
       <c r="F38">
-        <v>1.631727266804446</v>
+        <v>1.208640679979695</v>
       </c>
       <c r="G38">
-        <v>0.9836606267322026</v>
+        <v>1.419101529386267</v>
       </c>
       <c r="H38">
-        <v>0.0830083238018631</v>
+        <v>-0.2565607374317693</v>
       </c>
       <c r="I38">
-        <v>0.3004288142107612</v>
+        <v>0.627946269261713</v>
       </c>
       <c r="J38">
-        <v>0.3392560329237568</v>
+        <v>0.5482123265480681</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1604,28 +1604,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>-0.8350711388588363</v>
       </c>
       <c r="C39">
-        <v>0.229249077949035</v>
+        <v>0.1485789965021382</v>
       </c>
       <c r="D39">
-        <v>0.8123243230358668</v>
+        <v>0.3742447754406868</v>
       </c>
       <c r="E39">
-        <v>1.960742058374819</v>
+        <v>1.537655471550067</v>
       </c>
       <c r="F39">
-        <v>1.386457942637421</v>
+        <v>1.821898845291485</v>
       </c>
       <c r="G39">
-        <v>0.5165590133838123</v>
+        <v>0.1769899521501799</v>
       </c>
       <c r="H39">
-        <v>0.533292211046529</v>
+        <v>0.8608096660974809</v>
       </c>
       <c r="I39">
-        <v>0.4291993317639253</v>
+        <v>0.6381556253882366</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1633,25 +1633,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>-0.0806700814468968</v>
       </c>
       <c r="C40">
-        <v>0.8465632433592418</v>
+        <v>0.4084836957640618</v>
       </c>
       <c r="D40">
-        <v>1.920531081894779</v>
+        <v>1.497444495070027</v>
       </c>
       <c r="E40">
-        <v>1.289107015581394</v>
+        <v>1.724547918235458</v>
       </c>
       <c r="F40">
-        <v>0.5183108491097954</v>
+        <v>0.178741787876163</v>
       </c>
       <c r="G40">
-        <v>0.6760134805742268</v>
+        <v>1.003530935625179</v>
       </c>
       <c r="H40">
-        <v>0.510877643699331</v>
+        <v>0.7198339373236422</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1659,34 +1659,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-0.43807954759518</v>
       </c>
       <c r="C41">
-        <v>0.5708169905943377</v>
+        <v>0.1477304037695859</v>
       </c>
       <c r="D41">
-        <v>0.01804978668664603</v>
+        <v>0.4534906893407109</v>
       </c>
       <c r="E41">
-        <v>-0.1827256417445682</v>
+        <v>-0.5222947029782006</v>
       </c>
       <c r="F41">
-        <v>0.4235166964376589</v>
+        <v>0.7510341514886107</v>
       </c>
       <c r="G41">
-        <v>0.6676403276704121</v>
+        <v>0.8765966212947234</v>
       </c>
       <c r="H41">
-        <v>0.621340604993847</v>
+        <v>0.6504644380763409</v>
       </c>
       <c r="I41">
-        <v>0.79956309247072</v>
+        <v>0.6588952181776051</v>
       </c>
       <c r="J41">
-        <v>0.6670299006771074</v>
+        <v>-0.4009133581774047</v>
       </c>
       <c r="K41">
-        <v>0.4311770617334787</v>
+        <v>-0.3987502414539961</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1694,31 +1694,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>-0.4230865868247518</v>
       </c>
       <c r="C42">
-        <v>0.02980728807256128</v>
+        <v>0.4652481907266262</v>
       </c>
       <c r="D42">
-        <v>-0.2238244379332457</v>
+        <v>-0.5633934991668781</v>
       </c>
       <c r="E42">
-        <v>0.5832762842658497</v>
+        <v>0.9107937393168015</v>
       </c>
       <c r="F42">
-        <v>0.617399973412617</v>
+        <v>0.8263562670369282</v>
       </c>
       <c r="G42">
-        <v>0.5217797901587033</v>
+        <v>0.5509036232411972</v>
       </c>
       <c r="H42">
-        <v>0.585513233710472</v>
+        <v>0.4448453594173571</v>
       </c>
       <c r="I42">
-        <v>0.4270107835748291</v>
+        <v>-0.640932475279683</v>
       </c>
       <c r="J42">
-        <v>0.1561013815599921</v>
+        <v>-0.6738259216274827</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1726,28 +1726,28 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.4354409026540649</v>
       </c>
       <c r="C43">
-        <v>-0.1301963372738157</v>
+        <v>-0.4697653985074481</v>
       </c>
       <c r="D43">
-        <v>0.5108066060813883</v>
+        <v>0.8383240611323401</v>
       </c>
       <c r="E43">
-        <v>0.6655684479417943</v>
+        <v>0.8745247415661055</v>
       </c>
       <c r="F43">
-        <v>0.5686458496688687</v>
+        <v>0.5977696827513626</v>
       </c>
       <c r="G43">
-        <v>0.658905425534158</v>
+        <v>0.5182375512410431</v>
       </c>
       <c r="H43">
-        <v>0.4547983591411224</v>
+        <v>-0.6131448997133897</v>
       </c>
       <c r="I43">
-        <v>0.1254483673634326</v>
+        <v>-0.7044789358240422</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1755,25 +1755,25 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>-0.3395690612336324</v>
       </c>
       <c r="C44">
-        <v>0.1761401487524949</v>
+        <v>0.5036576038034468</v>
       </c>
       <c r="D44">
-        <v>0.5023931703099294</v>
+        <v>0.7113494639342406</v>
       </c>
       <c r="E44">
-        <v>0.4379362489728322</v>
+        <v>0.4670600820553261</v>
       </c>
       <c r="F44">
-        <v>0.5750967346946538</v>
+        <v>0.4344288604015389</v>
       </c>
       <c r="G44">
-        <v>0.4004511949343623</v>
+        <v>-0.6674920639201498</v>
       </c>
       <c r="H44">
-        <v>0.1246246286569459</v>
+        <v>-0.7053026745305289</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1781,31 +1781,28 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.3275174550509519</v>
       </c>
       <c r="C45">
-        <v>0.4294639635780726</v>
+        <v>0.6384202572023839</v>
       </c>
       <c r="D45">
-        <v>0.3973415673004581</v>
+        <v>0.426465400382952</v>
       </c>
       <c r="E45">
-        <v>0.6116741145579709</v>
+        <v>0.471006240264856</v>
       </c>
       <c r="F45">
-        <v>0.5177953690990194</v>
+        <v>-0.5501478897554928</v>
       </c>
       <c r="G45">
-        <v>0.1766395540300891</v>
+        <v>-0.6532877491573856</v>
       </c>
       <c r="H45">
-        <v>-0.103717404667151</v>
+        <v>0.9228462089976119</v>
       </c>
       <c r="I45">
-        <v>0.116853017112689</v>
-      </c>
-      <c r="J45">
-        <v>0.0656055045824076</v>
+        <v>-0.1008087126355974</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1813,28 +1810,25 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.2089562936243113</v>
       </c>
       <c r="C46">
-        <v>0.1561587410681113</v>
+        <v>0.1852825741506052</v>
       </c>
       <c r="D46">
-        <v>0.4583248076330051</v>
+        <v>0.3176569333398902</v>
       </c>
       <c r="E46">
-        <v>0.512331327115831</v>
+        <v>-0.5556119317386812</v>
       </c>
       <c r="F46">
-        <v>0.3008324781649634</v>
+        <v>-0.5290948250225114</v>
       </c>
       <c r="G46">
-        <v>-0.03005129570333048</v>
+        <v>0.9965123179614324</v>
       </c>
       <c r="H46">
-        <v>0.1621020318703046</v>
-      </c>
-      <c r="I46">
-        <v>0.09396722017207537</v>
+        <v>-0.05555969787798182</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1842,25 +1836,22 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>0.02912383308249389</v>
       </c>
       <c r="C47">
-        <v>0.3448617207782973</v>
+        <v>0.2041938464851824</v>
       </c>
       <c r="D47">
-        <v>0.5524129607847215</v>
+        <v>-0.5155302980697907</v>
       </c>
       <c r="E47">
-        <v>0.3965125265442708</v>
+        <v>-0.4334147766432039</v>
       </c>
       <c r="F47">
-        <v>0.02086797035774168</v>
+        <v>1.047431584022505</v>
       </c>
       <c r="G47">
-        <v>0.2165940584969377</v>
-      </c>
-      <c r="H47">
-        <v>0.1678413615257028</v>
+        <v>-0.001067671251348712</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1868,92 +1859,74 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>-0.1406678742931149</v>
       </c>
       <c r="C48">
-        <v>0.3503545147481475</v>
+        <v>-0.7175887441063646</v>
       </c>
       <c r="D48">
-        <v>0.2503663119242107</v>
+        <v>-0.5795609912632642</v>
       </c>
       <c r="E48">
-        <v>-0.010844490317723</v>
+        <v>1.01571912334704</v>
       </c>
       <c r="F48">
-        <v>0.3388531918591725</v>
-      </c>
-      <c r="G48">
-        <v>0.2536586044058566</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.1211914621108861</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-1.067943258854512</v>
       </c>
       <c r="C49">
-        <v>0.06337333140709242</v>
+        <v>-0.7665539717803824</v>
       </c>
       <c r="D49">
-        <v>-0.126997991958504</v>
+        <v>0.8995656217062589</v>
       </c>
       <c r="E49">
-        <v>0.2710278583641497</v>
-      </c>
-      <c r="F49">
-        <v>0.2839636379017065</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.05336612861586332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>-0.8299273031874748</v>
       </c>
       <c r="C50">
-        <v>-0.2666626902110494</v>
+        <v>0.7599009234537135</v>
       </c>
       <c r="D50">
-        <v>-0.0175111938228269</v>
-      </c>
-      <c r="E50">
-        <v>-0.03551192986874702</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.2351729235711133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1.026563613664763</v>
       </c>
       <c r="C51">
-        <v>-0.003358524568980586</v>
-      </c>
-      <c r="D51">
-        <v>0.0251811917398754</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.221020254317267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0.0006230659377876868</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>-0.2176617297482864</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
